--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sofcom Systems Ltd/Pruned_Excel/Semi_Final/Sofcom Systems Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sofcom Systems Ltd/Pruned_Excel/Semi_Final/Sofcom Systems Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="105">
   <si>
     <t>Balance Sheet of Sofcom Systems(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,46 +62,49 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Sofcom Systems(in Rs. Cr.)</t>
@@ -197,9 +203,6 @@
     <t>Quarterly Results of Sofcom Systems(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -257,49 +260,10 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>09</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -726,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,578 +736,623 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>3.78</v>
-      </c>
-      <c r="C2">
-        <v>-0.16</v>
       </c>
       <c r="D2">
         <v>-0.16</v>
       </c>
       <c r="E2">
+        <v>-0.16</v>
+      </c>
+      <c r="F2">
         <v>3.63</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.06</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.7</v>
-      </c>
-      <c r="I2">
-        <v>0.02</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
         <v>3.22</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.47</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>3.78</v>
-      </c>
-      <c r="C3">
-        <v>-0.16</v>
       </c>
       <c r="D3">
         <v>-0.16</v>
       </c>
       <c r="E3">
+        <v>-0.16</v>
+      </c>
+      <c r="F3">
         <v>3.63</v>
-      </c>
-      <c r="F3">
-        <v>0.08</v>
       </c>
       <c r="G3">
         <v>0.08</v>
       </c>
       <c r="H3">
+        <v>0.08</v>
+      </c>
+      <c r="I3">
         <v>3.71</v>
       </c>
-      <c r="I3">
-        <v>0.01</v>
-      </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
+        <v>0.01</v>
+      </c>
+      <c r="L3">
         <v>3.54</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.16</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>3.78</v>
-      </c>
-      <c r="C4">
-        <v>-0.15</v>
       </c>
       <c r="D4">
         <v>-0.15</v>
       </c>
       <c r="E4">
+        <v>-0.15</v>
+      </c>
+      <c r="F4">
         <v>3.63</v>
-      </c>
-      <c r="F4">
-        <v>0.08</v>
       </c>
       <c r="G4">
         <v>0.08</v>
       </c>
       <c r="H4">
+        <v>0.08</v>
+      </c>
+      <c r="I4">
         <v>3.71</v>
       </c>
-      <c r="I4">
-        <v>0.01</v>
-      </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
+        <v>0.01</v>
+      </c>
+      <c r="L4">
         <v>3.61</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.1</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.71</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>4.63</v>
-      </c>
-      <c r="C5">
-        <v>-0.12</v>
       </c>
       <c r="D5">
         <v>-0.12</v>
       </c>
       <c r="E5">
+        <v>-0.12</v>
+      </c>
+      <c r="F5">
         <v>4.51</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.02</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.54</v>
-      </c>
-      <c r="I5">
-        <v>0.02</v>
       </c>
       <c r="J5">
         <v>0.02</v>
       </c>
       <c r="K5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
         <v>4.45</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.09</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>4.54</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>4.63</v>
-      </c>
-      <c r="C6">
-        <v>-0.08</v>
       </c>
       <c r="D6">
         <v>-0.08</v>
       </c>
       <c r="E6">
+        <v>-0.08</v>
+      </c>
+      <c r="F6">
         <v>4.55</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.3</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4.27</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8.82</v>
       </c>
-      <c r="I6">
-        <v>0.01</v>
-      </c>
       <c r="J6">
         <v>0.01</v>
       </c>
       <c r="K6">
+        <v>0.01</v>
+      </c>
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2.83</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>8.82</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>4.63</v>
-      </c>
-      <c r="C7">
-        <v>-0.05</v>
       </c>
       <c r="D7">
         <v>-0.05</v>
       </c>
       <c r="E7">
+        <v>-0.05</v>
+      </c>
+      <c r="F7">
         <v>4.58</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.08</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.83</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.41</v>
       </c>
-      <c r="I7">
-        <v>0.01</v>
-      </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
         <v>5.17</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2.24</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.41</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
         <v>4.63</v>
-      </c>
-      <c r="C8">
-        <v>-0.24</v>
       </c>
       <c r="D8">
         <v>-0.24</v>
       </c>
       <c r="E8">
+        <v>-0.24</v>
+      </c>
+      <c r="F8">
         <v>4.4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.12</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2.49</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6.89</v>
       </c>
-      <c r="I8">
-        <v>0.01</v>
-      </c>
       <c r="J8">
         <v>0.01</v>
       </c>
       <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
         <v>5.25</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1.64</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>6.89</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>4.63</v>
-      </c>
-      <c r="C9">
-        <v>-0.47</v>
       </c>
       <c r="D9">
         <v>-0.47</v>
       </c>
       <c r="E9">
+        <v>-0.47</v>
+      </c>
+      <c r="F9">
         <v>4.16</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.31</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.31</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.47</v>
       </c>
-      <c r="I9">
-        <v>0.01</v>
-      </c>
       <c r="J9">
         <v>0.01</v>
       </c>
       <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="L9">
         <v>5.32</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.15</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>6.47</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>4.63</v>
-      </c>
-      <c r="C10">
-        <v>-0.79</v>
       </c>
       <c r="D10">
         <v>-0.79</v>
       </c>
       <c r="E10">
+        <v>-0.79</v>
+      </c>
+      <c r="F10">
         <v>3.84</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.23</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.51</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6.35</v>
       </c>
-      <c r="I10">
-        <v>0.01</v>
-      </c>
       <c r="J10">
         <v>0.01</v>
       </c>
       <c r="K10">
+        <v>0.01</v>
+      </c>
+      <c r="L10">
         <v>5.39</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.96</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>6.35</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>4.63</v>
-      </c>
-      <c r="C11">
-        <v>-1.03</v>
       </c>
       <c r="D11">
         <v>-1.03</v>
       </c>
       <c r="E11">
+        <v>-1.03</v>
+      </c>
+      <c r="F11">
         <v>3.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.4</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2.91</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.51</v>
       </c>
-      <c r="I11">
-        <v>0.01</v>
-      </c>
       <c r="J11">
         <v>0.01</v>
       </c>
       <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
         <v>5.47</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1.05</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>6.51</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>4.63</v>
-      </c>
-      <c r="C12">
-        <v>-1.29</v>
       </c>
       <c r="D12">
         <v>-1.29</v>
       </c>
       <c r="E12">
+        <v>-1.29</v>
+      </c>
+      <c r="F12">
         <v>3.34</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.42</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3.17</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>6.52</v>
       </c>
-      <c r="I12">
-        <v>0.01</v>
-      </c>
       <c r="J12">
         <v>0.01</v>
       </c>
       <c r="K12">
+        <v>0.01</v>
+      </c>
+      <c r="L12">
         <v>5.56</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.96</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>6.52</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>4.63</v>
-      </c>
-      <c r="C13">
-        <v>-1.54</v>
       </c>
       <c r="D13">
         <v>-1.54</v>
       </c>
       <c r="E13">
+        <v>-1.54</v>
+      </c>
+      <c r="F13">
         <v>3.09</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.55</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3.43</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>6.52</v>
       </c>
-      <c r="I13">
-        <v>0.01</v>
-      </c>
       <c r="J13">
         <v>0.01</v>
       </c>
       <c r="K13">
+        <v>0.01</v>
+      </c>
+      <c r="L13">
         <v>5.65</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.88</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>6.52</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>4.63</v>
-      </c>
-      <c r="C14">
-        <v>0.55</v>
       </c>
       <c r="D14">
         <v>0.55</v>
       </c>
       <c r="E14">
+        <v>0.55</v>
+      </c>
+      <c r="F14">
         <v>5.19</v>
-      </c>
-      <c r="F14">
-        <v>0.04</v>
       </c>
       <c r="G14">
         <v>0.04</v>
       </c>
       <c r="H14">
+        <v>0.04</v>
+      </c>
+      <c r="I14">
         <v>5.23</v>
       </c>
-      <c r="I14">
-        <v>0.01</v>
-      </c>
       <c r="J14">
         <v>0.01</v>
       </c>
       <c r="K14">
+        <v>0.01</v>
+      </c>
+      <c r="L14">
         <v>0.33</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4.9</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>5.23</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>4.63</v>
-      </c>
-      <c r="C15">
-        <v>0.73</v>
       </c>
       <c r="D15">
         <v>0.73</v>
       </c>
       <c r="E15">
+        <v>0.73</v>
+      </c>
+      <c r="F15">
         <v>5.36</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.04</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.17</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.55</v>
       </c>
-      <c r="I15">
-        <v>0.01</v>
-      </c>
       <c r="J15">
         <v>0.01</v>
       </c>
       <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
         <v>0.27</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5.28</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.55</v>
       </c>
     </row>
@@ -1354,286 +1363,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0.17</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>-0.14</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>0.03</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0.37</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-0.33</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-0.01</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.03</v>
       </c>
       <c r="I3">
+        <v>0.03</v>
+      </c>
+      <c r="J3">
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0.03</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.06</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>0.04</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.06</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-0.84</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.85</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>-0.05</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1.25</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1.6</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.87</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
         <v>0.05</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>0.04</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.72</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.83</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-0.13</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>-0.02</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.06</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
         <v>-0.26</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>-0.38</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.02</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.04</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>-0.31</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>-0.62</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>-0.02</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>-0.38</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.02</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
         <v>0</v>
       </c>
@@ -1641,28 +1677,31 @@
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-0.02</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.04</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
         <v>-0.33</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.08</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
@@ -1670,94 +1709,103 @@
         <v>0</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>0.07000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.02</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>-0.35</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.03</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-0.03</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
         <v>-0.33</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.03</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>-0.11</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>-0.09</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.09</v>
       </c>
-      <c r="I13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>2.31</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-3.48</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6.56</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3.07</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
       <c r="G14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>0.01</v>
@@ -1765,33 +1813,39 @@
       <c r="I14">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>0.17</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.09</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.06</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.03</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>-0.01</v>
       </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
       <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
     </row>
@@ -1802,86 +1856,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>0.03</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -1890,14 +1947,14 @@
         <v>0.03</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>0.03</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
@@ -1905,16 +1962,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L2">
         <v>0.03</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1943,13 +2000,16 @@
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>0.03</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0.03</v>
@@ -1958,14 +2018,14 @@
         <v>0.03</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.03</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1973,17 +2033,17 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K3">
+        <v>0.01</v>
+      </c>
+      <c r="L3">
         <v>0.02</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.03</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
@@ -2011,13 +2071,16 @@
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.03</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -2026,14 +2089,14 @@
         <v>0.03</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.03</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -2044,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0.02</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2074,18 +2137,21 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>0.14</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0.14</v>
@@ -2094,37 +2160,37 @@
         <v>0.14</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.14</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.02</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.08</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.1</v>
-      </c>
-      <c r="M5">
-        <v>0.04</v>
       </c>
       <c r="N5">
         <v>0.04</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2133,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0.03</v>
@@ -2142,18 +2208,21 @@
         <v>0.03</v>
       </c>
       <c r="U5">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="V5">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>5.3</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
       </c>
       <c r="C6">
         <v>5.3</v>
@@ -2162,46 +2231,46 @@
         <v>5.3</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>5.3</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.03</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.15</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.2</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5.25</v>
-      </c>
-      <c r="M6">
-        <v>0.05</v>
       </c>
       <c r="N6">
         <v>0.05</v>
       </c>
       <c r="O6">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S6">
         <v>0.04</v>
@@ -2210,18 +2279,21 @@
         <v>0.04</v>
       </c>
       <c r="U6">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="V6">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1.25</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
       </c>
       <c r="C7">
         <v>1.25</v>
@@ -2230,46 +2302,46 @@
         <v>1.25</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1.25</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.04</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.33</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>0.16</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.21</v>
-      </c>
-      <c r="M7">
-        <v>0.04</v>
       </c>
       <c r="N7">
         <v>0.04</v>
       </c>
       <c r="O7">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S7">
         <v>0.03</v>
@@ -2278,18 +2350,21 @@
         <v>0.03</v>
       </c>
       <c r="U7">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="V7">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>0.15</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0.15</v>
@@ -2298,46 +2373,46 @@
         <v>0.15</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.15</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0.05</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.29</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.41</v>
-      </c>
-      <c r="M8">
-        <v>-0.26</v>
       </c>
       <c r="N8">
         <v>-0.26</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="P8">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>-0.08</v>
       </c>
       <c r="R8">
-        <v>-0.18</v>
+        <v>-0.08</v>
       </c>
       <c r="S8">
         <v>-0.18</v>
@@ -2346,18 +2421,21 @@
         <v>-0.18</v>
       </c>
       <c r="U8">
-        <v>-0.44</v>
+        <v>-0.18</v>
       </c>
       <c r="V8">
         <v>-0.44</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>-0.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1.1</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1.1</v>
@@ -2366,46 +2444,46 @@
         <v>1.1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1.1</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0.03</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.25</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.41</v>
-      </c>
-      <c r="M9">
-        <v>-0.31</v>
       </c>
       <c r="N9">
         <v>-0.31</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="P9">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>-0.08</v>
       </c>
       <c r="R9">
-        <v>-0.23</v>
+        <v>-0.08</v>
       </c>
       <c r="S9">
         <v>-0.23</v>
@@ -2414,18 +2492,21 @@
         <v>-0.23</v>
       </c>
       <c r="U9">
-        <v>-0.5600000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="V9">
         <v>-0.5600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2443,37 +2524,37 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0.02</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.29</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.08</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.38</v>
-      </c>
-      <c r="M10">
-        <v>-0.38</v>
       </c>
       <c r="N10">
         <v>-0.38</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="P10">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>-0.06</v>
       </c>
       <c r="R10">
-        <v>-0.32</v>
+        <v>-0.06</v>
       </c>
       <c r="S10">
         <v>-0.32</v>
@@ -2482,18 +2563,21 @@
         <v>-0.32</v>
       </c>
       <c r="U10">
-        <v>-0.77</v>
+        <v>-0.32</v>
       </c>
       <c r="V10">
         <v>-0.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2511,37 +2595,37 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.02</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.24</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.33</v>
-      </c>
-      <c r="M11">
-        <v>-0.33</v>
       </c>
       <c r="N11">
         <v>-0.33</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="P11">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>-0.08</v>
       </c>
       <c r="R11">
-        <v>-0.24</v>
+        <v>-0.08</v>
       </c>
       <c r="S11">
         <v>-0.24</v>
@@ -2550,18 +2634,21 @@
         <v>-0.24</v>
       </c>
       <c r="U11">
-        <v>-0.58</v>
+        <v>-0.24</v>
       </c>
       <c r="V11">
         <v>-0.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2579,37 +2666,37 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0.02</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.26</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.35</v>
-      </c>
-      <c r="M12">
-        <v>-0.35</v>
       </c>
       <c r="N12">
         <v>-0.35</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="P12">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>-0.09</v>
       </c>
       <c r="R12">
-        <v>-0.26</v>
+        <v>-0.09</v>
       </c>
       <c r="S12">
         <v>-0.26</v>
@@ -2618,18 +2705,21 @@
         <v>-0.26</v>
       </c>
       <c r="U12">
-        <v>-0.63</v>
+        <v>-0.26</v>
       </c>
       <c r="V12">
         <v>-0.63</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2647,37 +2737,37 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I13">
+        <v>0.01</v>
+      </c>
+      <c r="J13">
         <v>0.25</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.33</v>
-      </c>
-      <c r="M13">
-        <v>-0.33</v>
       </c>
       <c r="N13">
         <v>-0.33</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
       <c r="P13">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>-0.08</v>
       </c>
       <c r="R13">
-        <v>-0.25</v>
+        <v>-0.08</v>
       </c>
       <c r="S13">
         <v>-0.25</v>
@@ -2686,18 +2776,21 @@
         <v>-0.25</v>
       </c>
       <c r="U13">
-        <v>-0.6</v>
+        <v>-0.25</v>
       </c>
       <c r="V13">
         <v>-0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>2.76</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
       </c>
       <c r="C14">
         <v>2.76</v>
@@ -2706,46 +2799,46 @@
         <v>2.76</v>
       </c>
       <c r="E14">
+        <v>2.76</v>
+      </c>
+      <c r="F14">
         <v>1.46</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.22</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0.02</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.18</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>1.71</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1.91</v>
-      </c>
-      <c r="M14">
-        <v>2.31</v>
       </c>
       <c r="N14">
         <v>2.31</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="P14">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0.21</v>
       </c>
       <c r="R14">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="S14">
         <v>2.09</v>
@@ -2754,18 +2847,21 @@
         <v>2.09</v>
       </c>
       <c r="U14">
-        <v>5.04</v>
+        <v>2.09</v>
       </c>
       <c r="V14">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>0.36</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
       <c r="C15">
         <v>0.36</v>
@@ -2774,14 +2870,14 @@
         <v>0.36</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.36</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2792,28 +2888,28 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0.12</v>
       </c>
       <c r="M15">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="N15">
         <v>0.24</v>
       </c>
       <c r="O15">
+        <v>0.24</v>
+      </c>
+      <c r="P15">
         <v>0.06</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0.06</v>
-      </c>
-      <c r="R15">
-        <v>0.17</v>
       </c>
       <c r="S15">
         <v>0.17</v>
@@ -2822,9 +2918,12 @@
         <v>0.17</v>
       </c>
       <c r="U15">
+        <v>0.17</v>
+      </c>
+      <c r="V15">
         <v>0.42</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>0.42</v>
       </c>
     </row>
@@ -2843,84 +2942,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0.02</v>
@@ -2985,13 +3084,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>0.02</v>
@@ -3056,13 +3155,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>0.09</v>
@@ -3127,13 +3226,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D5">
         <v>0.08</v>
@@ -3198,13 +3297,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>0.05</v>
@@ -3269,13 +3368,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D7">
         <v>1.46</v>
@@ -3340,13 +3439,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>3.66</v>
@@ -3411,13 +3510,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>0.4</v>
@@ -3482,13 +3581,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D10">
         <v>0.44</v>
@@ -3553,13 +3652,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>0.29</v>
@@ -3624,13 +3723,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>0.12</v>
@@ -3695,13 +3794,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>0.03</v>
@@ -3766,13 +3865,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>0.02</v>
@@ -3837,13 +3936,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D15">
         <v>0.07000000000000001</v>
@@ -3908,13 +4007,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <v>0.02</v>
@@ -3979,13 +4078,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>1.1</v>
@@ -4050,13 +4149,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4121,13 +4220,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4192,13 +4291,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -4263,13 +4362,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4334,13 +4433,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4405,13 +4504,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -4476,13 +4575,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
         <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4547,13 +4646,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4618,13 +4717,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4689,13 +4788,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4760,13 +4859,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4831,13 +4930,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4902,13 +5001,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4973,13 +5072,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -5044,13 +5143,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5115,13 +5214,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -5186,13 +5285,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5257,13 +5356,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5328,13 +5427,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5399,13 +5498,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>0.15</v>
@@ -5470,13 +5569,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D38">
         <v>1.23</v>
@@ -5541,13 +5640,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D39">
         <v>1.35</v>
@@ -5612,13 +5711,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D40">
         <v>0.04</v>
@@ -5683,13 +5782,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D41">
         <v>0.15</v>
@@ -5754,13 +5853,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D42">
         <v>0.09</v>
@@ -5825,13 +5924,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>0.11</v>
@@ -5896,13 +5995,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D44">
         <v>0.01</v>
@@ -5967,13 +6066,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -6038,13 +6137,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D46">
         <v>0.29</v>
@@ -6114,81 +6213,84 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
         <v>0.09</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.02</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -6196,10 +6298,10 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>20.31</v>
-      </c>
-      <c r="H2">
-        <v>-0.35</v>
       </c>
       <c r="I2">
         <v>-0.35</v>
@@ -6208,7 +6310,7 @@
         <v>-0.35</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>-0.35</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -6231,20 +6333,23 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.02</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -6252,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>24.44</v>
-      </c>
-      <c r="H3">
-        <v>-1.23</v>
       </c>
       <c r="I3">
         <v>-1.23</v>
@@ -6264,7 +6369,7 @@
         <v>-1.23</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-1.23</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -6287,17 +6392,20 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
       <c r="D4">
         <v>0.01</v>
       </c>
@@ -6308,10 +6416,10 @@
         <v>0.01</v>
       </c>
       <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
         <v>16.39</v>
-      </c>
-      <c r="H4">
-        <v>14.05</v>
       </c>
       <c r="I4">
         <v>14.05</v>
@@ -6320,13 +6428,13 @@
         <v>14.05</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>14.05</v>
       </c>
       <c r="L4">
         <v>0.1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -6335,24 +6443,27 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>100</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
         <v>0.3</v>
-      </c>
-      <c r="C5">
-        <v>0.08</v>
       </c>
       <c r="D5">
         <v>0.08</v>
@@ -6361,28 +6472,28 @@
         <v>0.08</v>
       </c>
       <c r="F5">
+        <v>0.08</v>
+      </c>
+      <c r="G5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>27.79</v>
-      </c>
-      <c r="H5">
-        <v>26.35</v>
       </c>
       <c r="I5">
         <v>26.35</v>
       </c>
       <c r="J5">
+        <v>26.35</v>
+      </c>
+      <c r="K5">
         <v>24.11</v>
-      </c>
-      <c r="K5">
-        <v>0.73</v>
       </c>
       <c r="L5">
         <v>0.73</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -6391,114 +6502,120 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>100</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
         <v>11.43</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.43</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.42</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.11</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.09</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3.76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.67</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.92</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.75</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>0.88</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.45</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.63</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>100</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>38.42</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>192.81</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>2.69</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.79</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.06</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.59</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>29.33</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.98</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2.19</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.59</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.36</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.6</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
@@ -6506,55 +6623,58 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>18.33</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>49.75</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
         <v>0.32</v>
-      </c>
-      <c r="C8">
-        <v>0.06</v>
       </c>
       <c r="D8">
         <v>0.06</v>
       </c>
       <c r="E8">
+        <v>0.06</v>
+      </c>
+      <c r="F8">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-0.39</v>
-      </c>
-      <c r="G8">
-        <v>18.98</v>
       </c>
       <c r="H8">
         <v>18.98</v>
       </c>
       <c r="I8">
+        <v>18.98</v>
+      </c>
+      <c r="J8">
         <v>-177.56</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-123.91</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-4.12</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-2.63</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.54</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
         <v>0</v>
       </c>
@@ -6562,55 +6682,58 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>10.64</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>382.97</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>2.38</v>
-      </c>
-      <c r="C9">
-        <v>-0.14</v>
       </c>
       <c r="D9">
         <v>-0.14</v>
       </c>
       <c r="E9">
+        <v>-0.14</v>
+      </c>
+      <c r="F9">
         <v>-0.67</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-0.5</v>
-      </c>
-      <c r="G9">
-        <v>-5.85</v>
       </c>
       <c r="H9">
         <v>-5.85</v>
       </c>
       <c r="I9">
+        <v>-5.85</v>
+      </c>
+      <c r="J9">
         <v>-28.38</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-21.21</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-5.61</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-3.6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.48</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>0</v>
       </c>
@@ -6618,34 +6741,37 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.83</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-152.49</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>-0.2</v>
       </c>
       <c r="E10">
+        <v>-0.2</v>
+      </c>
+      <c r="F10">
         <v>-0.82</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
@@ -6656,17 +6782,17 @@
         <v>0</v>
       </c>
       <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>-8.289999999999999</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-5.01</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.59</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
@@ -6674,34 +6800,37 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>9.390000000000001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-99.48999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>-0.18</v>
       </c>
       <c r="E11">
+        <v>-0.18</v>
+      </c>
+      <c r="F11">
         <v>-0.7</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-0.52</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
@@ -6712,17 +6841,17 @@
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>-6.71</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-3.71</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.7</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
         <v>0</v>
       </c>
@@ -6730,34 +6859,37 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>8.960000000000001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-105.26</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>-0.19</v>
       </c>
       <c r="E12">
+        <v>-0.19</v>
+      </c>
+      <c r="F12">
         <v>-0.76</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -6768,17 +6900,17 @@
         <v>0</v>
       </c>
       <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>-7.77</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-3.98</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.82</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -6786,34 +6918,37 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>9.18</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-103.78</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>-0.18</v>
       </c>
       <c r="E13">
+        <v>-0.18</v>
+      </c>
+      <c r="F13">
         <v>-0.71</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.54</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -6824,17 +6959,17 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>-8.09</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-3.83</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.93</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
         <v>0</v>
       </c>
@@ -6842,52 +6977,55 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>17.7</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-217.17</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>5.96</v>
-      </c>
-      <c r="C14">
-        <v>5.38</v>
       </c>
       <c r="D14">
         <v>5.38</v>
       </c>
       <c r="E14">
+        <v>5.38</v>
+      </c>
+      <c r="F14">
         <v>4.99</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.52</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>90.23</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>90.18000000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>83.58</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>75.81</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>40.38</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>40.05</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -6898,21 +7036,24 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>24.44</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>9.800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
         <v>0.77</v>
-      </c>
-      <c r="C15">
-        <v>0.51</v>
       </c>
       <c r="D15">
         <v>0.51</v>
@@ -6921,29 +7062,29 @@
         <v>0.51</v>
       </c>
       <c r="F15">
+        <v>0.51</v>
+      </c>
+      <c r="G15">
         <v>0.38</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>66.31999999999999</v>
-      </c>
-      <c r="H15">
-        <v>65.93000000000001</v>
       </c>
       <c r="I15">
         <v>65.93000000000001</v>
       </c>
       <c r="J15">
+        <v>65.93000000000001</v>
+      </c>
+      <c r="K15">
         <v>48.83</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3.25</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3.14</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
@@ -6954,9 +7095,12 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>18.67</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>78.73999999999999</v>
       </c>
     </row>
